--- a/Web-Application Security Test Suite.xlsx
+++ b/Web-Application Security Test Suite.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310194624\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mohit\Personal\Git\Security-Test-Guides\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C0E89-E2B0-413B-82D4-5F48E06DCF18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="765" windowWidth="18720" windowHeight="8760" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="3" r:id="rId1"/>
-    <sheet name="Revision History" sheetId="4" r:id="rId2"/>
-    <sheet name="Executive Summary" sheetId="7" r:id="rId3"/>
-    <sheet name="OWASP TC" sheetId="1" r:id="rId4"/>
-    <sheet name="Port Test" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="Advanced TC" sheetId="8" r:id="rId6"/>
-    <sheet name="Test Result" sheetId="5" r:id="rId7"/>
-    <sheet name="Tool List" sheetId="6" r:id="rId8"/>
+    <sheet name="Executive Summary" sheetId="7" r:id="rId2"/>
+    <sheet name="OWASP TC" sheetId="1" r:id="rId3"/>
+    <sheet name="Port Test" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Advanced TC" sheetId="8" r:id="rId5"/>
+    <sheet name="Test Result" sheetId="5" r:id="rId6"/>
+    <sheet name="Tool List" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Results">'OWASP TC'!$A$143:$A$145</definedName>
@@ -30,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Philips</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,12 +65,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Philips</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="577">
   <si>
     <t>Web Application Security Test cases</t>
   </si>
@@ -144,33 +144,6 @@
   </si>
   <si>
     <t>Public</t>
-  </si>
-  <si>
-    <t>Revision History</t>
-  </si>
-  <si>
-    <t>Document Date</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Changes/Comments</t>
-  </si>
-  <si>
-    <t>Sanjog Panda</t>
-  </si>
-  <si>
-    <t>Initial Draft</t>
-  </si>
-  <si>
-    <t>Added Advanced Test Case tab and tweeked OWASP Testcases</t>
-  </si>
-  <si>
-    <t>Added Webservice, file and resource  and Database Testcases into Advanced TC.</t>
   </si>
   <si>
     <t>Comments/ Observations</t>
@@ -1887,9 +1860,6 @@
     <t>Below table lists the issues that are found by manual testing.</t>
   </si>
   <si>
-    <t>Minor updates to template</t>
-  </si>
-  <si>
     <t>Version: 0.4</t>
   </si>
   <si>
@@ -2116,9 +2086,6 @@
   </si>
   <si>
     <t>AT.21</t>
-  </si>
-  <si>
-    <t>Added additional test cases under advanced TC</t>
   </si>
   <si>
     <t>BurpSuite/Mention the tool used</t>
@@ -2136,16 +2103,13 @@
   </si>
   <si>
     <t xml:space="preserve">  Encryption at rest</t>
-  </si>
-  <si>
-    <t>Pardhiv Reddy,Neelesh swami</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2175,26 +2139,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="20"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2329,17 +2274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -2930,13 +2864,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2992,8 +2926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3003,11 +2935,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3032,125 +2964,122 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -3163,70 +3092,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3238,73 +3177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3334,7 +3207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3343,7 +3216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3355,7 +3228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,34 +3266,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 13" xfId="3"/>
-    <cellStyle name="Normal 14" xfId="1"/>
-    <cellStyle name="Normal_CV20 System Product DesignVerificationPlan 080307" xfId="2"/>
-    <cellStyle name="Normal_papu-suvr-01-3079 2" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 14" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_CV20 System Product DesignVerificationPlan 080307" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_papu-suvr-01-3079 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3436,7 +3290,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3465,7 +3319,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3557,7 +3410,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3701,7 +3553,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3779,7 +3630,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,7 +3658,13 @@
     <xdr:ext cx="2307556" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3962,6 +3819,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3997,6 +3871,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4172,7 +4063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -4194,30 +4085,30 @@
   <sheetData>
     <row r="5" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="105"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
     </row>
     <row r="7" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="106"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -4225,24 +4116,24 @@
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="111"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="114"/>
     </row>
     <row r="10" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="114"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="117"/>
     </row>
     <row r="11" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="6:19" x14ac:dyDescent="0.25">
@@ -4263,215 +4154,215 @@
     </row>
     <row r="13" spans="6:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="16"/>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
       <c r="S13" s="18"/>
     </row>
     <row r="14" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F14" s="16"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
       <c r="S14" s="18"/>
     </row>
     <row r="15" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F15" s="16"/>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
       <c r="S15" s="18"/>
     </row>
     <row r="16" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F16" s="16"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
       <c r="S16" s="18"/>
     </row>
     <row r="17" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F17" s="16"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
       <c r="S17" s="18"/>
     </row>
     <row r="18" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F18" s="16"/>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
       <c r="S18" s="18"/>
     </row>
     <row r="19" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F19" s="16"/>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
       <c r="S19" s="18"/>
     </row>
     <row r="20" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F20" s="16"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
       <c r="S20" s="18"/>
     </row>
     <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="16"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
       <c r="S21" s="18"/>
     </row>
     <row r="22" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F22" s="16"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
       <c r="S22" s="18"/>
     </row>
     <row r="23" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F23" s="16"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
       <c r="S23" s="18"/>
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F24" s="16"/>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
       <c r="S24" s="18"/>
     </row>
     <row r="25" spans="6:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="16"/>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -4519,11 +4410,11 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="115" t="s">
+      <c r="K28" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
@@ -4570,514 +4461,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="C5:M21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="129">
-        <v>41869</v>
-      </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="99">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="132"/>
-      <c r="H7" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="129">
-        <v>41919</v>
-      </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="99">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="129">
-        <v>41922</v>
-      </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="99">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="132"/>
-      <c r="H9" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="129">
-        <v>41928</v>
-      </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="102">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="126" t="s">
-        <v>505</v>
-      </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="3:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="129">
-        <v>42361</v>
-      </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>588</v>
-      </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="126" t="s">
-        <v>582</v>
-      </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="125"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="125"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:L19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="N4:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="N22" sqref="N22:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="15:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q4" s="147" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
+      <c r="Q4" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
     </row>
     <row r="5" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O5" s="148"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="150"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="131"/>
     </row>
     <row r="6" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O6" s="151"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="153"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="134"/>
     </row>
     <row r="7" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O7" s="151"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="152"/>
-      <c r="U7" s="152"/>
-      <c r="V7" s="153"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="134"/>
     </row>
     <row r="8" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O8" s="151"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="153"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="134"/>
     </row>
     <row r="9" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="153"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="134"/>
     </row>
     <row r="10" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="153"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="134"/>
     </row>
     <row r="11" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="153"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="134"/>
     </row>
     <row r="12" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="153"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="134"/>
     </row>
     <row r="13" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="153"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="134"/>
     </row>
     <row r="14" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="153"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="134"/>
     </row>
     <row r="15" spans="15:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="154"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="156"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="137"/>
     </row>
     <row r="21" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N21" s="178" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="178" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="178" t="s">
-        <v>27</v>
+      <c r="N21" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="98" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N22" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="42">
+      <c r="N22" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="40">
         <v>7</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="42">
+      <c r="N23" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="40">
         <v>10</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N24" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" s="42">
+      <c r="N24" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="40">
         <v>15</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="40">
         <v>7</v>
       </c>
     </row>
@@ -5092,264 +4643,264 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A3:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="51"/>
-    <col min="4" max="4" width="28.28515625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="64.28515625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="51" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="51" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" style="51" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="3" width="9.140625" style="49"/>
+    <col min="4" max="4" width="28.28515625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="64.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="49" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" style="49" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+    </row>
+    <row r="11" spans="3:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="C11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="157" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-    </row>
-    <row r="11" spans="3:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="C11" s="53" t="s">
+      <c r="E13" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="3:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D14" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F14" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="53"/>
+    </row>
+    <row r="15" spans="3:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="D15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="53" t="s">
+      <c r="E15" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="3:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="52" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="C13" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>502</v>
-      </c>
-      <c r="F13" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="3:9" ht="114" x14ac:dyDescent="0.2">
-      <c r="C14" s="54" t="s">
+      <c r="F16" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="53"/>
+    </row>
+    <row r="17" spans="3:9" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="C17" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="F17" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="3:9" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="C18" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="3:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="C15" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="E18" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="56" t="s">
-        <v>503</v>
-      </c>
-      <c r="F15" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="3:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="54" t="s">
+      <c r="F18" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="53"/>
+    </row>
+    <row r="19" spans="3:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D19" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E19" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="55"/>
-    </row>
-    <row r="17" spans="3:9" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="C17" s="54" t="s">
+      <c r="F19" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="3:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C20" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D20" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E20" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="3:9" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="C18" s="54" t="s">
+      <c r="F20" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="3:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C21" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="3:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="54" t="s">
+      <c r="F21" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="3:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="C22" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D22" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E22" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="3:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="C20" s="54" t="s">
+      <c r="F22" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="53"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="B143" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="B144" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="3:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C21" s="54" t="s">
+      <c r="B145" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="55" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="49" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="3:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="C22" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B143" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B144" s="51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B145" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="51" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5357,10 +4908,10 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G22" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Results</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H22" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>Severity</formula1>
     </dataValidation>
   </dataValidations>
@@ -5370,8 +4921,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5389,54 +4940,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="160" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="E1" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -5444,20 +4995,20 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5465,13 +5016,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5479,47 +5030,47 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C13" s="142">
+        <v>25</v>
+      </c>
+      <c r="D13" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="161">
-        <v>25</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="15" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5527,13 +5078,13 @@
         <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5541,75 +5092,75 @@
         <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="161">
+      <c r="C18" s="142">
         <v>443</v>
       </c>
-      <c r="D18" s="161" t="s">
-        <v>96</v>
+      <c r="D18" s="142" t="s">
+        <v>87</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="28">
+      <c r="C21" s="26">
         <v>123</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>103</v>
+      <c r="D21" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5617,13 +5168,13 @@
         <v>445</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5631,51 +5182,51 @@
         <v>386686</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="139">
+        <v>3389</v>
+      </c>
+      <c r="D26" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="158">
-        <v>3389</v>
-      </c>
-      <c r="D26" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="27" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
       <c r="E27" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5694,2770 +5245,2770 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C4:H253"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A259" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="51"/>
-    <col min="4" max="4" width="42.28515625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="51" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="51" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="3" width="9.140625" style="49"/>
+    <col min="4" max="4" width="42.28515625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+    </row>
+    <row r="9" spans="3:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C14" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C15" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-    </row>
-    <row r="9" spans="3:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="60" t="s">
+      <c r="D15" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="62" t="s">
+      <c r="D16" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="65"/>
+    </row>
+    <row r="17" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C17" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="66" t="s">
+      <c r="D17" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="67"/>
-    </row>
-    <row r="14" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C14" s="66" t="s">
+      <c r="D18" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="67"/>
-    </row>
-    <row r="15" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C15" s="66" t="s">
+      <c r="D19" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="E19" s="53"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="67"/>
-    </row>
-    <row r="16" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C16" s="66" t="s">
+      <c r="D20" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="E20" s="53"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="65"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="67"/>
-    </row>
-    <row r="17" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C17" s="66" t="s">
+      <c r="D21" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="E21" s="53"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="66" t="s">
+      <c r="D22" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="E22" s="53"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="67"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="66" t="s">
+      <c r="D23" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="E23" s="53"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="67"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="66" t="s">
+      <c r="D24" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="E24" s="53"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="67"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="66" t="s">
+      <c r="D25" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="67"/>
+    </row>
+    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="66" t="s">
+      <c r="D26" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+    </row>
+    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="72"/>
+    </row>
+    <row r="28" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="23" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C23" s="66" t="s">
+      <c r="D28" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C29" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="67"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="66" t="s">
+      <c r="D29" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="E29" s="66"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="67"/>
+    </row>
+    <row r="30" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C30" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="66" t="s">
+      <c r="D30" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="67"/>
+    </row>
+    <row r="31" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C31" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="69"/>
-    </row>
-    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="70" t="s">
+      <c r="D31" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="E31" s="66"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="67"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
-    </row>
-    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="74"/>
-    </row>
-    <row r="28" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C28" s="75" t="s">
+      <c r="D32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="E32" s="66"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="78" t="s">
+      <c r="D33" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="E33" s="66"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="67"/>
+    </row>
+    <row r="34" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C34" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="69"/>
-    </row>
-    <row r="30" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C30" s="78" t="s">
+      <c r="D34" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="E34" s="66"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="67"/>
+    </row>
+    <row r="35" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C35" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="69"/>
-    </row>
-    <row r="31" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C31" s="78" t="s">
+      <c r="D35" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="E35" s="66"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C36" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="69"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32" s="78" t="s">
+      <c r="D36" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="E36" s="66"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C37" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="69"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="78" t="s">
+      <c r="D37" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="69"/>
-    </row>
-    <row r="34" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C34" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="69"/>
-    </row>
-    <row r="35" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C35" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="69"/>
-    </row>
-    <row r="36" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C36" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="69"/>
-    </row>
-    <row r="37" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C37" s="179" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="180" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="181"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="183"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
     </row>
     <row r="38" spans="3:8" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="79" t="s">
-        <v>584</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>585</v>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
+      <c r="C38" s="77" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>574</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
     </row>
     <row r="39" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="75"/>
+    </row>
+    <row r="41" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C41" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="67"/>
+    </row>
+    <row r="42" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C42" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="66"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="67"/>
+    </row>
+    <row r="43" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C43" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="66"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="67"/>
+    </row>
+    <row r="44" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C44" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="E44" s="66"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="67"/>
+    </row>
+    <row r="45" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C45" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="77"/>
-    </row>
-    <row r="41" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C41" s="78" t="s">
+      <c r="D45" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="E45" s="66"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="67"/>
+    </row>
+    <row r="46" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="69"/>
-    </row>
-    <row r="42" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C42" s="78" t="s">
+      <c r="D46" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="71"/>
+    </row>
+    <row r="47" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="78"/>
+    </row>
+    <row r="48" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C48" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="69"/>
-    </row>
-    <row r="43" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C43" s="78" t="s">
+      <c r="D48" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="75"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C49" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="69"/>
-    </row>
-    <row r="44" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C44" s="78" t="s">
+      <c r="D49" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="E49" s="66"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="67"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C50" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="69"/>
-    </row>
-    <row r="45" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C45" s="78" t="s">
+      <c r="D50" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="E50" s="66"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="67"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C51" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="68"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="69"/>
-    </row>
-    <row r="46" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="79" t="s">
+      <c r="D51" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="E51" s="66"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="67"/>
+    </row>
+    <row r="52" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C52" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="73"/>
-    </row>
-    <row r="47" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="80"/>
-    </row>
-    <row r="48" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C48" s="75" t="s">
+      <c r="D52" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="76" t="s">
+      <c r="E52" s="66"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C53" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C49" s="78" t="s">
+      <c r="D53" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="E53" s="66"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="67"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C54" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="69"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C50" s="78" t="s">
+      <c r="D54" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="E54" s="66"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="67"/>
+    </row>
+    <row r="55" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C55" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="69"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C51" s="78" t="s">
+      <c r="D55" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="E55" s="66"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="67"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C56" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="69"/>
-    </row>
-    <row r="52" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C52" s="78" t="s">
+      <c r="D56" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="E56" s="66"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C57" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="68"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="69"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C53" s="78" t="s">
+      <c r="D57" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="E57" s="66"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="67"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C58" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="68"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="69"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C54" s="78" t="s">
+      <c r="D58" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="E58" s="66"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="67"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="69"/>
-    </row>
-    <row r="55" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C55" s="78" t="s">
+      <c r="D59" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="E59" s="66"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="67"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C60" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="69"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C56" s="78" t="s">
+      <c r="D60" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="E60" s="66"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="67"/>
+    </row>
+    <row r="61" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C61" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="E56" s="68"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="69"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C57" s="78" t="s">
+      <c r="D61" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="E61" s="66"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="67"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C62" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="68"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="69"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C58" s="78" t="s">
+      <c r="D62" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="67"/>
+    </row>
+    <row r="63" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C63" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="E58" s="68"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="69"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="78" t="s">
+      <c r="D63" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="E63" s="66"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="67"/>
+    </row>
+    <row r="64" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C64" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="68"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="69"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C60" s="78" t="s">
+      <c r="D64" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="E64" s="66"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="67"/>
+    </row>
+    <row r="65" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C65" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="68"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="69"/>
-    </row>
-    <row r="61" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C61" s="78" t="s">
+      <c r="D65" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="E65" s="66"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="67"/>
+    </row>
+    <row r="66" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="68"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="69"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C62" s="78" t="s">
+      <c r="D66" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="68"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="69"/>
-    </row>
-    <row r="63" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C63" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="68"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="69"/>
-    </row>
-    <row r="64" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C64" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="68"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="69"/>
-    </row>
-    <row r="65" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C65" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="68"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="69"/>
-    </row>
-    <row r="66" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E66" s="71"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="73"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="71"/>
     </row>
     <row r="67" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="75"/>
+    </row>
+    <row r="69" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C69" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="66"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="67"/>
+    </row>
+    <row r="70" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C70" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="66"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="67"/>
+    </row>
+    <row r="71" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C71" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="66"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="67"/>
+    </row>
+    <row r="72" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C72" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="E72" s="66"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="67"/>
+    </row>
+    <row r="73" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C73" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="77"/>
-    </row>
-    <row r="69" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C69" s="78" t="s">
+      <c r="D73" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="E73" s="66"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="67"/>
+    </row>
+    <row r="74" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C74" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="E69" s="68"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="69"/>
-    </row>
-    <row r="70" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C70" s="78" t="s">
+      <c r="D74" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="E74" s="66"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="67"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C75" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="69"/>
-    </row>
-    <row r="71" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C71" s="78" t="s">
+      <c r="D75" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="E75" s="66"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="67"/>
+    </row>
+    <row r="76" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C76" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="69"/>
-    </row>
-    <row r="72" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C72" s="78" t="s">
+      <c r="D76" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="E76" s="66"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="67"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C77" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="E72" s="68"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="69"/>
-    </row>
-    <row r="73" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C73" s="78" t="s">
+      <c r="D77" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="D73" s="43" t="s">
+      <c r="E77" s="66"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="67"/>
+    </row>
+    <row r="78" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C78" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="E73" s="68"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="69"/>
-    </row>
-    <row r="74" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C74" s="78" t="s">
+      <c r="D78" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="E78" s="66"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="67"/>
+    </row>
+    <row r="79" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C79" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="68"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="69"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C75" s="78" t="s">
+      <c r="D79" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="E79" s="66"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="67"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="68"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="69"/>
-    </row>
-    <row r="76" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C76" s="78" t="s">
+      <c r="D80" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="E80" s="66"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="67"/>
+    </row>
+    <row r="81" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="E76" s="68"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="69"/>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C77" s="78" t="s">
+      <c r="D81" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="D77" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="E77" s="68"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="69"/>
-    </row>
-    <row r="78" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C78" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="E78" s="68"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="69"/>
-    </row>
-    <row r="79" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C79" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" s="68"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="69"/>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C80" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E80" s="68"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="69"/>
-    </row>
-    <row r="81" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81" s="71"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="73"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="71"/>
     </row>
     <row r="82" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="75"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E84" s="66"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="67"/>
+    </row>
+    <row r="85" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C85" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="66"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="67"/>
+    </row>
+    <row r="86" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C86" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="E86" s="66"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="67"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="E87" s="66"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="67"/>
+    </row>
+    <row r="88" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C88" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="77"/>
-    </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C84" s="78" t="s">
+      <c r="D88" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="E88" s="66"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="67"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C89" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="E84" s="68"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="69"/>
-    </row>
-    <row r="85" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C85" s="78" t="s">
+      <c r="D89" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="E89" s="66"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="67"/>
+    </row>
+    <row r="90" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="E85" s="68"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="69"/>
-    </row>
-    <row r="86" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C86" s="78" t="s">
+      <c r="D90" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="43" t="s">
+      <c r="E90" s="69"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="71"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" s="78"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="82"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" s="78"/>
+    </row>
+    <row r="93" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E86" s="68"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="69"/>
-    </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="78" t="s">
+      <c r="D93" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C94" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="E87" s="68"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="69"/>
-    </row>
-    <row r="88" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C88" s="78" t="s">
+      <c r="D94" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="D88" s="43" t="s">
+      <c r="E94" s="80"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="81"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C95" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="E88" s="68"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="69"/>
-    </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C89" s="78" t="s">
+      <c r="D95" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="43" t="s">
+      <c r="E95" s="66"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="67"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C96" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="E89" s="68"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="69"/>
-    </row>
-    <row r="90" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="79" t="s">
+      <c r="D96" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="E96" s="66"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="67"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C97" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="E90" s="71"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="73"/>
-    </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C91" s="80"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="84"/>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="80"/>
-    </row>
-    <row r="93" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="60" t="s">
+      <c r="D97" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="60" t="s">
+      <c r="E97" s="66"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="67"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C98" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-    </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C94" s="81" t="s">
+      <c r="D98" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="E98" s="66"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="67"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="E94" s="82"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="83"/>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C95" s="78" t="s">
+      <c r="D99" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="E99" s="66"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="67"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="E95" s="68"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="69"/>
-    </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C96" s="78" t="s">
+      <c r="D100" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="E100" s="66"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="67"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C101" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="68"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="69"/>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C97" s="78" t="s">
+      <c r="D101" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="E101" s="66"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="67"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C102" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="E97" s="68"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="69"/>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="78" t="s">
+      <c r="D102" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="D98" s="43" t="s">
+      <c r="E102" s="66"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="67"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C103" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="E98" s="68"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="69"/>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C99" s="78" t="s">
+      <c r="D103" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="E103" s="66"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="67"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C104" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="E99" s="68"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="69"/>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C100" s="78" t="s">
+      <c r="D104" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="E104" s="66"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="67"/>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C105" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="E100" s="68"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="69"/>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C101" s="78" t="s">
+      <c r="D105" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="E105" s="66"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="67"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C106" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="E101" s="68"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="69"/>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C102" s="78" t="s">
+      <c r="D106" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="E106" s="66"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="67"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C107" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="E102" s="68"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="69"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C103" s="78" t="s">
+      <c r="D107" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="E107" s="66"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="67"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C108" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="E103" s="68"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="69"/>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C104" s="78" t="s">
+      <c r="D108" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="E108" s="66"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="67"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C109" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="E104" s="68"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="69"/>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C105" s="78" t="s">
+      <c r="D109" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="E109" s="66"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="67"/>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C110" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="E105" s="68"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="69"/>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="78" t="s">
+      <c r="D110" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="E110" s="66"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="67"/>
+    </row>
+    <row r="111" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C111" s="76" t="s">
         <v>297</v>
       </c>
-      <c r="E106" s="68"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="69"/>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="78" t="s">
+      <c r="D111" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="E111" s="66"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="67"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C112" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="E107" s="68"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="69"/>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="78" t="s">
+      <c r="D112" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="E112" s="66"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="67"/>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C113" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="E108" s="68"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="69"/>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="78" t="s">
+      <c r="D113" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="E113" s="66"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="67"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C114" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="E109" s="68"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="69"/>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C110" s="78" t="s">
+      <c r="D114" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="E114" s="66"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="67"/>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C115" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="E110" s="68"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="69"/>
-    </row>
-    <row r="111" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C111" s="78" t="s">
+      <c r="D115" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="E115" s="66"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="67"/>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C116" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="E111" s="68"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="69"/>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="78" t="s">
+      <c r="D116" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="E116" s="66"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="67"/>
+    </row>
+    <row r="117" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C117" s="76" t="s">
         <v>309</v>
       </c>
-      <c r="E112" s="68"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="69"/>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C113" s="78" t="s">
+      <c r="D117" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="E117" s="66"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="67"/>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C118" s="76" t="s">
         <v>311</v>
       </c>
-      <c r="E113" s="68"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="69"/>
-    </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C114" s="78" t="s">
+      <c r="D118" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="E118" s="66"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="67"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C119" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="E114" s="68"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="69"/>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C115" s="78" t="s">
+      <c r="D119" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="E119" s="66"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="67"/>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="E115" s="68"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="69"/>
-    </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C116" s="78" t="s">
+      <c r="D120" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="E120" s="66"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="67"/>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C121" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="E116" s="68"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="69"/>
-    </row>
-    <row r="117" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C117" s="78" t="s">
+      <c r="D121" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="D117" s="43" t="s">
+      <c r="E121" s="66"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="67"/>
+    </row>
+    <row r="122" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="E117" s="68"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="69"/>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" s="78" t="s">
+      <c r="D122" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="D118" s="43" t="s">
+      <c r="E122" s="69"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="71"/>
+    </row>
+    <row r="124" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="E118" s="68"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="69"/>
-    </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C119" s="78" t="s">
+      <c r="D124" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="D119" s="43" t="s">
+      <c r="E124" s="58"/>
+      <c r="F124" s="58"/>
+      <c r="G124" s="58"/>
+      <c r="H124" s="58"/>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C125" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="E119" s="68"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="69"/>
-    </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C120" s="78" t="s">
+      <c r="D125" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="D120" s="43" t="s">
+      <c r="E125" s="80"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="81"/>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="E120" s="68"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="69"/>
-    </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C121" s="78" t="s">
+      <c r="D126" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="D121" s="43" t="s">
+      <c r="E126" s="66"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="67"/>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="E121" s="68"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="69"/>
-    </row>
-    <row r="122" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="78" t="s">
+      <c r="D127" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="D122" s="45" t="s">
+      <c r="E127" s="66"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="67"/>
+    </row>
+    <row r="128" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="E122" s="71"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="73"/>
-    </row>
-    <row r="124" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="60" t="s">
+      <c r="D128" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="D124" s="60" t="s">
+      <c r="E128" s="69"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="71"/>
+    </row>
+    <row r="129" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="78"/>
+    </row>
+    <row r="130" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C130" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-    </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C125" s="81" t="s">
+      <c r="D130" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="D125" s="49" t="s">
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="75"/>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C131" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="E125" s="82"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
-      <c r="H125" s="83"/>
-    </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C126" s="78" t="s">
+      <c r="D131" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="D126" s="43" t="s">
+      <c r="E131" s="66"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="67"/>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="E126" s="68"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="69"/>
-    </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="78" t="s">
+      <c r="D132" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="D127" s="43" t="s">
+      <c r="E132" s="66"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="67"/>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="E127" s="68"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="69"/>
-    </row>
-    <row r="128" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="79" t="s">
+      <c r="D133" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="E133" s="66"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="67"/>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C134" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="E128" s="71"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72"/>
-      <c r="H128" s="73"/>
-    </row>
-    <row r="129" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="80"/>
-    </row>
-    <row r="130" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C130" s="75" t="s">
+      <c r="D134" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="D130" s="76" t="s">
+      <c r="E134" s="66"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="67"/>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C135" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="E130" s="76"/>
-      <c r="F130" s="76"/>
-      <c r="G130" s="76"/>
-      <c r="H130" s="77"/>
-    </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C131" s="78" t="s">
+      <c r="D135" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="D131" s="43" t="s">
+      <c r="E135" s="66"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="67"/>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C136" s="76" t="s">
         <v>343</v>
       </c>
-      <c r="E131" s="68"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="69"/>
-    </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C132" s="78" t="s">
+      <c r="D136" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="D132" s="43" t="s">
+      <c r="E136" s="66"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="67"/>
+    </row>
+    <row r="137" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C137" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="E132" s="68"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="69"/>
-    </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C133" s="78" t="s">
+      <c r="D137" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="D133" s="43" t="s">
+      <c r="E137" s="66"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="67"/>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C138" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="E133" s="68"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="69"/>
-    </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C134" s="78" t="s">
+      <c r="D138" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="D134" s="43" t="s">
+      <c r="E138" s="66"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="67"/>
+    </row>
+    <row r="139" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C139" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="E134" s="68"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="69"/>
-    </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C135" s="78" t="s">
+      <c r="D139" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="D135" s="43" t="s">
+      <c r="E139" s="66"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="67"/>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C140" s="76" t="s">
         <v>351</v>
       </c>
-      <c r="E135" s="68"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="69"/>
-    </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C136" s="78" t="s">
+      <c r="D140" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="D136" s="43" t="s">
+      <c r="E140" s="66"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="67"/>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="E136" s="68"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="57"/>
-      <c r="H136" s="69"/>
-    </row>
-    <row r="137" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C137" s="78" t="s">
+      <c r="D141" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="D137" s="43" t="s">
+      <c r="E141" s="66"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="67"/>
+    </row>
+    <row r="142" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="E137" s="68"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="69"/>
-    </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C138" s="78" t="s">
+      <c r="D142" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="D138" s="43" t="s">
+      <c r="E142" s="69"/>
+      <c r="F142" s="70"/>
+      <c r="G142" s="70"/>
+      <c r="H142" s="71"/>
+    </row>
+    <row r="143" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="78"/>
+    </row>
+    <row r="144" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C144" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="E138" s="68"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="69"/>
-    </row>
-    <row r="139" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C139" s="78" t="s">
+      <c r="D144" s="74" t="s">
         <v>358</v>
       </c>
-      <c r="D139" s="43" t="s">
+      <c r="E144" s="74"/>
+      <c r="F144" s="74"/>
+      <c r="G144" s="74"/>
+      <c r="H144" s="75"/>
+    </row>
+    <row r="145" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C145" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="E139" s="68"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="69"/>
-    </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C140" s="78" t="s">
+      <c r="D145" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="D140" s="43" t="s">
+      <c r="E145" s="66"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="67"/>
+    </row>
+    <row r="146" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C146" s="76" t="s">
         <v>361</v>
       </c>
-      <c r="E140" s="68"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="57"/>
-      <c r="H140" s="69"/>
-    </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C141" s="78" t="s">
+      <c r="D146" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="D141" s="43" t="s">
+      <c r="E146" s="66"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="67"/>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C147" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E141" s="68"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="69"/>
-    </row>
-    <row r="142" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="79" t="s">
+      <c r="D147" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="D142" s="45" t="s">
+      <c r="E147" s="66"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="67"/>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C148" s="76" t="s">
         <v>365</v>
       </c>
-      <c r="E142" s="71"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="73"/>
-    </row>
-    <row r="143" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="80"/>
-    </row>
-    <row r="144" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C144" s="75" t="s">
+      <c r="D148" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="D144" s="76" t="s">
+      <c r="E148" s="66"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="67"/>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C149" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="E144" s="76"/>
-      <c r="F144" s="76"/>
-      <c r="G144" s="76"/>
-      <c r="H144" s="77"/>
-    </row>
-    <row r="145" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C145" s="78" t="s">
+      <c r="D149" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="D145" s="43" t="s">
+      <c r="E149" s="66"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="67"/>
+    </row>
+    <row r="150" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C150" s="76" t="s">
         <v>369</v>
       </c>
-      <c r="E145" s="68"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="69"/>
-    </row>
-    <row r="146" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C146" s="78" t="s">
+      <c r="D150" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="D146" s="43" t="s">
+      <c r="E150" s="66"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="67"/>
+    </row>
+    <row r="151" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C151" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="E146" s="68"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="69"/>
-    </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C147" s="78" t="s">
+      <c r="D151" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="D147" s="43" t="s">
+      <c r="E151" s="66"/>
+      <c r="F151" s="55"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="67"/>
+    </row>
+    <row r="152" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C152" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="E147" s="68"/>
-      <c r="F147" s="57"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="69"/>
-    </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C148" s="78" t="s">
+      <c r="D152" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="D148" s="43" t="s">
+      <c r="E152" s="101"/>
+      <c r="F152" s="102"/>
+      <c r="G152" s="102"/>
+      <c r="H152" s="103"/>
+    </row>
+    <row r="153" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="104" t="s">
+        <v>575</v>
+      </c>
+      <c r="D153" s="105" t="s">
+        <v>576</v>
+      </c>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="69"/>
+      <c r="H153" s="71"/>
+    </row>
+    <row r="154" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="78"/>
+    </row>
+    <row r="155" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C155" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="E148" s="68"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="57"/>
-      <c r="H148" s="69"/>
-    </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C149" s="78" t="s">
+      <c r="D155" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="D149" s="43" t="s">
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="75"/>
+    </row>
+    <row r="156" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C156" s="76" t="s">
         <v>377</v>
       </c>
-      <c r="E149" s="68"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="57"/>
-      <c r="H149" s="69"/>
-    </row>
-    <row r="150" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C150" s="78" t="s">
+      <c r="D156" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="D150" s="43" t="s">
+      <c r="E156" s="66"/>
+      <c r="F156" s="55"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="67"/>
+    </row>
+    <row r="157" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C157" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="E150" s="68"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="57"/>
-      <c r="H150" s="69"/>
-    </row>
-    <row r="151" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C151" s="78" t="s">
+      <c r="D157" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D151" s="43" t="s">
+      <c r="E157" s="66"/>
+      <c r="F157" s="55"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="67"/>
+    </row>
+    <row r="158" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C158" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="E151" s="68"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="57"/>
-      <c r="H151" s="69"/>
-    </row>
-    <row r="152" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C152" s="179" t="s">
+      <c r="D158" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="D152" s="180" t="s">
+      <c r="E158" s="66"/>
+      <c r="F158" s="55"/>
+      <c r="G158" s="55"/>
+      <c r="H158" s="67"/>
+    </row>
+    <row r="159" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C159" s="76" t="s">
         <v>383</v>
       </c>
-      <c r="E152" s="181"/>
-      <c r="F152" s="182"/>
-      <c r="G152" s="182"/>
-      <c r="H152" s="183"/>
-    </row>
-    <row r="153" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="184" t="s">
-        <v>586</v>
-      </c>
-      <c r="D153" s="185" t="s">
-        <v>587</v>
-      </c>
-      <c r="E153" s="71"/>
-      <c r="F153" s="71"/>
-      <c r="G153" s="71"/>
-      <c r="H153" s="73"/>
-    </row>
-    <row r="154" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="80"/>
-    </row>
-    <row r="155" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C155" s="75" t="s">
+      <c r="D159" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="D155" s="76" t="s">
+      <c r="E159" s="66"/>
+      <c r="F159" s="55"/>
+      <c r="G159" s="55"/>
+      <c r="H159" s="67"/>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C160" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="E155" s="76"/>
-      <c r="F155" s="76"/>
-      <c r="G155" s="76"/>
-      <c r="H155" s="77"/>
-    </row>
-    <row r="156" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C156" s="78" t="s">
+      <c r="D160" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="D156" s="43" t="s">
+      <c r="E160" s="66"/>
+      <c r="F160" s="55"/>
+      <c r="G160" s="55"/>
+      <c r="H160" s="67"/>
+    </row>
+    <row r="161" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C161" s="76" t="s">
         <v>387</v>
       </c>
-      <c r="E156" s="68"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="69"/>
-    </row>
-    <row r="157" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C157" s="78" t="s">
+      <c r="D161" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="D157" s="43" t="s">
+      <c r="E161" s="66"/>
+      <c r="F161" s="55"/>
+      <c r="G161" s="55"/>
+      <c r="H161" s="67"/>
+    </row>
+    <row r="162" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C162" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="E157" s="68"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="69"/>
-    </row>
-    <row r="158" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C158" s="78" t="s">
+      <c r="D162" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="D158" s="43" t="s">
+      <c r="E162" s="66"/>
+      <c r="F162" s="55"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="67"/>
+    </row>
+    <row r="163" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="E158" s="68"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="57"/>
-      <c r="H158" s="69"/>
-    </row>
-    <row r="159" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C159" s="78" t="s">
+      <c r="D163" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="D159" s="43" t="s">
+      <c r="E163" s="69"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="70"/>
+      <c r="H163" s="71"/>
+    </row>
+    <row r="165" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="E159" s="68"/>
-      <c r="F159" s="57"/>
-      <c r="G159" s="57"/>
-      <c r="H159" s="69"/>
-    </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C160" s="78" t="s">
+      <c r="D165" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="D160" s="43" t="s">
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="58"/>
+      <c r="H165" s="58"/>
+    </row>
+    <row r="166" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C166" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="E160" s="68"/>
-      <c r="F160" s="57"/>
-      <c r="G160" s="57"/>
-      <c r="H160" s="69"/>
-    </row>
-    <row r="161" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C161" s="78" t="s">
+      <c r="D166" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="D161" s="43" t="s">
+      <c r="E166" s="80"/>
+      <c r="F166" s="62"/>
+      <c r="G166" s="62"/>
+      <c r="H166" s="81"/>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C167" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="E161" s="68"/>
-      <c r="F161" s="57"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="69"/>
-    </row>
-    <row r="162" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C162" s="78" t="s">
+      <c r="D167" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="D162" s="43" t="s">
+      <c r="E167" s="66"/>
+      <c r="F167" s="55"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="67"/>
+    </row>
+    <row r="168" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C168" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="E162" s="68"/>
-      <c r="F162" s="57"/>
-      <c r="G162" s="57"/>
-      <c r="H162" s="69"/>
-    </row>
-    <row r="163" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="79" t="s">
+      <c r="D168" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E168" s="66"/>
+      <c r="F168" s="55"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="67"/>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C169" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D163" s="45" t="s">
+      <c r="D169" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="E163" s="71"/>
-      <c r="F163" s="72"/>
-      <c r="G163" s="72"/>
-      <c r="H163" s="73"/>
-    </row>
-    <row r="165" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="60" t="s">
+      <c r="E169" s="66"/>
+      <c r="F169" s="55"/>
+      <c r="G169" s="55"/>
+      <c r="H169" s="67"/>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C170" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="D165" s="60" t="s">
+      <c r="D170" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="E165" s="60"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-    </row>
-    <row r="166" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C166" s="81" t="s">
+      <c r="E170" s="66"/>
+      <c r="F170" s="55"/>
+      <c r="G170" s="55"/>
+      <c r="H170" s="67"/>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C171" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="D166" s="49" t="s">
+      <c r="D171" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="E166" s="82"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="64"/>
-      <c r="H166" s="83"/>
-    </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C167" s="78" t="s">
+      <c r="E171" s="66"/>
+      <c r="F171" s="55"/>
+      <c r="G171" s="55"/>
+      <c r="H171" s="67"/>
+    </row>
+    <row r="172" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C172" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="D167" s="43" t="s">
+      <c r="D172" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="E167" s="68"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="69"/>
-    </row>
-    <row r="168" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C168" s="78" t="s">
+      <c r="E172" s="66"/>
+      <c r="F172" s="55"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="67"/>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C173" s="76" t="s">
         <v>408</v>
       </c>
-      <c r="D168" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E168" s="68"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="57"/>
-      <c r="H168" s="69"/>
-    </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C169" s="78" t="s">
+      <c r="D173" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="D169" s="43" t="s">
+      <c r="E173" s="66"/>
+      <c r="F173" s="55"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="67"/>
+    </row>
+    <row r="174" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C174" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="E169" s="68"/>
-      <c r="F169" s="57"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="69"/>
-    </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C170" s="78" t="s">
+      <c r="D174" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="D170" s="43" t="s">
+      <c r="E174" s="66"/>
+      <c r="F174" s="55"/>
+      <c r="G174" s="55"/>
+      <c r="H174" s="67"/>
+    </row>
+    <row r="175" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C175" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="E170" s="68"/>
-      <c r="F170" s="57"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="69"/>
-    </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C171" s="78" t="s">
+      <c r="D175" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="D171" s="43" t="s">
+      <c r="E175" s="66"/>
+      <c r="F175" s="55"/>
+      <c r="G175" s="55"/>
+      <c r="H175" s="67"/>
+    </row>
+    <row r="176" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="77" t="s">
         <v>414</v>
       </c>
-      <c r="E171" s="68"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="69"/>
-    </row>
-    <row r="172" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C172" s="78" t="s">
+      <c r="D176" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="D172" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="E172" s="68"/>
-      <c r="F172" s="57"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="69"/>
-    </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C173" s="78" t="s">
-        <v>417</v>
-      </c>
-      <c r="D173" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="E173" s="68"/>
-      <c r="F173" s="57"/>
-      <c r="G173" s="57"/>
-      <c r="H173" s="69"/>
-    </row>
-    <row r="174" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C174" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="D174" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="E174" s="68"/>
-      <c r="F174" s="57"/>
-      <c r="G174" s="57"/>
-      <c r="H174" s="69"/>
-    </row>
-    <row r="175" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C175" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="D175" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="E175" s="68"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="57"/>
-      <c r="H175" s="69"/>
-    </row>
-    <row r="176" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="79" t="s">
-        <v>423</v>
-      </c>
-      <c r="D176" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="E176" s="71"/>
-      <c r="F176" s="72"/>
-      <c r="G176" s="72"/>
-      <c r="H176" s="73"/>
+      <c r="E176" s="69"/>
+      <c r="F176" s="70"/>
+      <c r="G176" s="70"/>
+      <c r="H176" s="71"/>
     </row>
     <row r="177" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="3:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="C178" s="75" t="s">
+      <c r="C178" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="D178" s="74" t="s">
+        <v>417</v>
+      </c>
+      <c r="E178" s="74"/>
+      <c r="F178" s="74"/>
+      <c r="G178" s="74"/>
+      <c r="H178" s="75"/>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C179" s="76" t="s">
+        <v>418</v>
+      </c>
+      <c r="D179" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E179" s="66"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="67"/>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C180" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="D180" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="E180" s="66"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="67"/>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C181" s="76" t="s">
+        <v>422</v>
+      </c>
+      <c r="D181" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="E181" s="66"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="67"/>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C182" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="D182" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="D178" s="76" t="s">
+      <c r="E182" s="66"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="67"/>
+    </row>
+    <row r="183" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="E178" s="76"/>
-      <c r="F178" s="76"/>
-      <c r="G178" s="76"/>
-      <c r="H178" s="77"/>
-    </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C179" s="78" t="s">
+      <c r="D183" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="D179" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="E179" s="68"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="57"/>
-      <c r="H179" s="69"/>
-    </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C180" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="D180" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="E180" s="68"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="57"/>
-      <c r="H180" s="69"/>
-    </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C181" s="78" t="s">
-        <v>431</v>
-      </c>
-      <c r="D181" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="E181" s="68"/>
-      <c r="F181" s="57"/>
-      <c r="G181" s="57"/>
-      <c r="H181" s="69"/>
-    </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C182" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="D182" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="E182" s="68"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="69"/>
-    </row>
-    <row r="183" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C183" s="79" t="s">
-        <v>435</v>
-      </c>
-      <c r="D183" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E183" s="71"/>
-      <c r="F183" s="72"/>
-      <c r="G183" s="72"/>
-      <c r="H183" s="73"/>
+      <c r="E183" s="69"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="71"/>
     </row>
     <row r="184" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="185" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C185" s="75" t="s">
+      <c r="C185" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D185" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="E185" s="74"/>
+      <c r="F185" s="74"/>
+      <c r="G185" s="74"/>
+      <c r="H185" s="75"/>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C186" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="D186" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="E186" s="66"/>
+      <c r="F186" s="55"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="67"/>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C187" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="D187" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="E187" s="66"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="67"/>
+    </row>
+    <row r="188" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C188" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="D188" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="E188" s="66"/>
+      <c r="F188" s="55"/>
+      <c r="G188" s="55"/>
+      <c r="H188" s="67"/>
+    </row>
+    <row r="189" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C189" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="D189" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="D185" s="76" t="s">
+      <c r="E189" s="66"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="67"/>
+    </row>
+    <row r="190" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="E185" s="76"/>
-      <c r="F185" s="76"/>
-      <c r="G185" s="76"/>
-      <c r="H185" s="77"/>
-    </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C186" s="78" t="s">
+      <c r="D190" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="D186" s="43" t="s">
+      <c r="E190" s="69"/>
+      <c r="F190" s="70"/>
+      <c r="G190" s="70"/>
+      <c r="H190" s="71"/>
+    </row>
+    <row r="191" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="78"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57"/>
+    </row>
+    <row r="192" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C192" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="E186" s="68"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="57"/>
-      <c r="H186" s="69"/>
-    </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C187" s="78" t="s">
+      <c r="D192" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="D187" s="43" t="s">
+      <c r="E192" s="74"/>
+      <c r="F192" s="74"/>
+      <c r="G192" s="74"/>
+      <c r="H192" s="75"/>
+    </row>
+    <row r="193" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C193" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="E187" s="68"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="57"/>
-      <c r="H187" s="69"/>
-    </row>
-    <row r="188" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C188" s="78" t="s">
+      <c r="D193" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="D188" s="43" t="s">
+      <c r="E193" s="53"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="65"/>
+    </row>
+    <row r="194" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="68" t="s">
         <v>444</v>
       </c>
-      <c r="E188" s="68"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="57"/>
-      <c r="H188" s="69"/>
-    </row>
-    <row r="189" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C189" s="78" t="s">
+      <c r="D194" s="84" t="s">
         <v>445</v>
       </c>
-      <c r="D189" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="E189" s="68"/>
-      <c r="F189" s="57"/>
-      <c r="G189" s="57"/>
-      <c r="H189" s="69"/>
-    </row>
-    <row r="190" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="79" t="s">
-        <v>447</v>
-      </c>
-      <c r="D190" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="E190" s="71"/>
-      <c r="F190" s="72"/>
-      <c r="G190" s="72"/>
-      <c r="H190" s="73"/>
-    </row>
-    <row r="191" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C191" s="80"/>
-      <c r="D191" s="59"/>
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="59"/>
-      <c r="H191" s="59"/>
-    </row>
-    <row r="192" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C192" s="75" t="s">
-        <v>449</v>
-      </c>
-      <c r="D192" s="76" t="s">
-        <v>450</v>
-      </c>
-      <c r="E192" s="76"/>
-      <c r="F192" s="76"/>
-      <c r="G192" s="76"/>
-      <c r="H192" s="77"/>
-    </row>
-    <row r="193" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C193" s="66" t="s">
-        <v>451</v>
-      </c>
-      <c r="D193" s="55" t="s">
-        <v>452</v>
-      </c>
-      <c r="E193" s="55"/>
-      <c r="F193" s="55"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="67"/>
-    </row>
-    <row r="194" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="70" t="s">
-        <v>453</v>
-      </c>
-      <c r="D194" s="86" t="s">
-        <v>454</v>
-      </c>
-      <c r="E194" s="86"/>
-      <c r="F194" s="86"/>
-      <c r="G194" s="86"/>
-      <c r="H194" s="87"/>
+      <c r="E194" s="84"/>
+      <c r="F194" s="84"/>
+      <c r="G194" s="84"/>
+      <c r="H194" s="85"/>
     </row>
     <row r="195" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C196" s="75" t="s">
+      <c r="C196" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="D196" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="E196" s="74"/>
+      <c r="F196" s="74"/>
+      <c r="G196" s="74"/>
+      <c r="H196" s="75"/>
+    </row>
+    <row r="197" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C197" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="D197" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="E197" s="53"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="53"/>
+      <c r="H197" s="65"/>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C198" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="D198" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="E198" s="53"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="65"/>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C199" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="D199" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="E199" s="53"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="53"/>
+      <c r="H199" s="65"/>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C200" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="D200" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="D196" s="76" t="s">
+      <c r="E200" s="53"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="53"/>
+      <c r="H200" s="65"/>
+    </row>
+    <row r="201" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C201" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="E196" s="76"/>
-      <c r="F196" s="76"/>
-      <c r="G196" s="76"/>
-      <c r="H196" s="77"/>
-    </row>
-    <row r="197" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C197" s="66" t="s">
+      <c r="D201" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="D197" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="E197" s="55"/>
-      <c r="F197" s="55"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="67"/>
-    </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C198" s="66" t="s">
-        <v>459</v>
-      </c>
-      <c r="D198" s="55" t="s">
-        <v>460</v>
-      </c>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="67"/>
-    </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C199" s="66" t="s">
-        <v>461</v>
-      </c>
-      <c r="D199" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="67"/>
-    </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C200" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="D200" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="E200" s="55"/>
-      <c r="F200" s="55"/>
-      <c r="G200" s="55"/>
-      <c r="H200" s="67"/>
-    </row>
-    <row r="201" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C201" s="66" t="s">
-        <v>465</v>
-      </c>
-      <c r="D201" s="86" t="s">
-        <v>466</v>
-      </c>
-      <c r="E201" s="86"/>
-      <c r="F201" s="86"/>
-      <c r="G201" s="86"/>
-      <c r="H201" s="87"/>
+      <c r="E201" s="84"/>
+      <c r="F201" s="84"/>
+      <c r="G201" s="84"/>
+      <c r="H201" s="85"/>
     </row>
     <row r="203" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="204" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C204" s="75" t="s">
+      <c r="C204" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="D204" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="E204" s="74"/>
+      <c r="F204" s="74"/>
+      <c r="G204" s="74"/>
+      <c r="H204" s="75"/>
+    </row>
+    <row r="205" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C205" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="D205" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="E205" s="53"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="65"/>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C206" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="D206" s="53" t="s">
+        <v>463</v>
+      </c>
+      <c r="E206" s="53"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="65"/>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C207" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="D207" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="E207" s="53"/>
+      <c r="F207" s="53"/>
+      <c r="G207" s="53"/>
+      <c r="H207" s="65"/>
+    </row>
+    <row r="208" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C208" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="D208" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="D204" s="76" t="s">
+      <c r="E208" s="53"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="53"/>
+      <c r="H208" s="65"/>
+    </row>
+    <row r="209" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C209" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="E204" s="76"/>
-      <c r="F204" s="76"/>
-      <c r="G204" s="76"/>
-      <c r="H204" s="77"/>
-    </row>
-    <row r="205" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C205" s="66" t="s">
+      <c r="D209" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="D205" s="55" t="s">
+      <c r="E209" s="53"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="65"/>
+    </row>
+    <row r="210" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C210" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="E205" s="55"/>
-      <c r="F205" s="55"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="67"/>
-    </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C206" s="66" t="s">
+      <c r="D210" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="D206" s="55" t="s">
+      <c r="E210" s="53"/>
+      <c r="F210" s="53"/>
+      <c r="G210" s="53"/>
+      <c r="H210" s="65"/>
+    </row>
+    <row r="211" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C211" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="E206" s="55"/>
-      <c r="F206" s="55"/>
-      <c r="G206" s="55"/>
-      <c r="H206" s="67"/>
-    </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C207" s="66" t="s">
+      <c r="D211" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="D207" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="E207" s="55"/>
-      <c r="F207" s="55"/>
-      <c r="G207" s="55"/>
-      <c r="H207" s="67"/>
-    </row>
-    <row r="208" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C208" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="D208" s="55" t="s">
-        <v>476</v>
-      </c>
-      <c r="E208" s="55"/>
-      <c r="F208" s="55"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="67"/>
-    </row>
-    <row r="209" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C209" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="D209" s="55" t="s">
-        <v>478</v>
-      </c>
-      <c r="E209" s="55"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="67"/>
-    </row>
-    <row r="210" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C210" s="66" t="s">
-        <v>479</v>
-      </c>
-      <c r="D210" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="E210" s="55"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="67"/>
-    </row>
-    <row r="211" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C211" s="70" t="s">
-        <v>481</v>
-      </c>
-      <c r="D211" s="55" t="s">
-        <v>482</v>
-      </c>
-      <c r="E211" s="86"/>
-      <c r="F211" s="86"/>
-      <c r="G211" s="86"/>
-      <c r="H211" s="87"/>
+      <c r="E211" s="84"/>
+      <c r="F211" s="84"/>
+      <c r="G211" s="84"/>
+      <c r="H211" s="85"/>
     </row>
     <row r="212" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D212" s="55"/>
+      <c r="D212" s="53"/>
     </row>
     <row r="213" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C213" s="75" t="s">
+      <c r="C213" s="73" t="s">
+        <v>498</v>
+      </c>
+      <c r="D213" s="73" t="s">
+        <v>497</v>
+      </c>
+      <c r="E213" s="74"/>
+      <c r="F213" s="74"/>
+      <c r="G213" s="74"/>
+      <c r="H213" s="75"/>
+    </row>
+    <row r="214" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C214" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D214" s="53" t="s">
+        <v>500</v>
+      </c>
+      <c r="E214" s="53"/>
+      <c r="F214" s="53"/>
+      <c r="G214" s="53"/>
+      <c r="H214" s="65"/>
+    </row>
+    <row r="215" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C215" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="D213" s="75" t="s">
+      <c r="D215" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="E215" s="53"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="53"/>
+      <c r="H215" s="65"/>
+    </row>
+    <row r="216" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C216" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="D216" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="E216" s="53"/>
+      <c r="F216" s="53"/>
+      <c r="G216" s="53"/>
+      <c r="H216" s="65"/>
+    </row>
+    <row r="217" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C217" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="D217" s="53" t="s">
+        <v>503</v>
+      </c>
+      <c r="E217" s="53"/>
+      <c r="F217" s="53"/>
+      <c r="G217" s="53"/>
+      <c r="H217" s="65"/>
+    </row>
+    <row r="218" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C218" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="D218" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="E218" s="53"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="65"/>
+    </row>
+    <row r="219" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C219" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="D219" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="E219" s="53"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="53"/>
+      <c r="H219" s="65"/>
+    </row>
+    <row r="220" spans="3:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="D220" s="53" t="s">
+        <v>506</v>
+      </c>
+      <c r="E220" s="84"/>
+      <c r="F220" s="84"/>
+      <c r="G220" s="84"/>
+      <c r="H220" s="85"/>
+    </row>
+    <row r="221" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C221" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="D221" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="E213" s="76"/>
-      <c r="F213" s="76"/>
-      <c r="G213" s="76"/>
-      <c r="H213" s="77"/>
-    </row>
-    <row r="214" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C214" s="66" t="s">
-        <v>509</v>
-      </c>
-      <c r="D214" s="55" t="s">
-        <v>510</v>
-      </c>
-      <c r="E214" s="55"/>
-      <c r="F214" s="55"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="67"/>
-    </row>
-    <row r="215" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C215" s="66" t="s">
+      <c r="E221" s="84"/>
+      <c r="F221" s="84"/>
+      <c r="G221" s="84"/>
+      <c r="H221" s="85"/>
+    </row>
+    <row r="222" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D222" s="53"/>
+    </row>
+    <row r="223" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C223" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="D223" s="73" t="s">
+        <v>515</v>
+      </c>
+      <c r="E223" s="74"/>
+      <c r="F223" s="74"/>
+      <c r="G223" s="74"/>
+      <c r="H223" s="75"/>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C224" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="D224" s="53" t="s">
+        <v>516</v>
+      </c>
+      <c r="E224" s="53"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="53"/>
+      <c r="H224" s="65"/>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C225" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="D225" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="E225" s="53"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="53"/>
+      <c r="H225" s="65"/>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C226" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="D226" s="53" t="s">
         <v>518</v>
       </c>
-      <c r="D215" s="55" t="s">
-        <v>511</v>
-      </c>
-      <c r="E215" s="55"/>
-      <c r="F215" s="55"/>
-      <c r="G215" s="55"/>
-      <c r="H215" s="67"/>
-    </row>
-    <row r="216" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C216" s="66" t="s">
+      <c r="E226" s="53"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="53"/>
+      <c r="H226" s="65"/>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C227" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="D227" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="D216" s="55" t="s">
-        <v>512</v>
-      </c>
-      <c r="E216" s="55"/>
-      <c r="F216" s="55"/>
-      <c r="G216" s="55"/>
-      <c r="H216" s="67"/>
-    </row>
-    <row r="217" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C217" s="66" t="s">
+      <c r="E227" s="53"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="53"/>
+      <c r="H227" s="65"/>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C228" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="D228" s="53" t="s">
         <v>520</v>
       </c>
-      <c r="D217" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="E217" s="55"/>
-      <c r="F217" s="55"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="67"/>
-    </row>
-    <row r="218" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C218" s="66" t="s">
+      <c r="E228" s="53"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="53"/>
+      <c r="H228" s="65"/>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C229" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="D229" s="53" t="s">
         <v>521</v>
       </c>
-      <c r="D218" s="55" t="s">
-        <v>514</v>
-      </c>
-      <c r="E218" s="55"/>
-      <c r="F218" s="55"/>
-      <c r="G218" s="55"/>
-      <c r="H218" s="67"/>
-    </row>
-    <row r="219" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C219" s="66" t="s">
+      <c r="E229" s="53"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="53"/>
+      <c r="H229" s="65"/>
+    </row>
+    <row r="230" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C230" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="D230" s="53" t="s">
         <v>522</v>
       </c>
-      <c r="D219" s="55" t="s">
-        <v>515</v>
-      </c>
-      <c r="E219" s="55"/>
-      <c r="F219" s="55"/>
-      <c r="G219" s="55"/>
-      <c r="H219" s="67"/>
-    </row>
-    <row r="220" spans="3:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C220" s="70" t="s">
+      <c r="E230" s="84"/>
+      <c r="F230" s="84"/>
+      <c r="G230" s="84"/>
+      <c r="H230" s="85"/>
+    </row>
+    <row r="231" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C231" s="68" t="s">
+        <v>534</v>
+      </c>
+      <c r="D231" s="53" t="s">
         <v>523</v>
       </c>
-      <c r="D220" s="55" t="s">
-        <v>516</v>
-      </c>
-      <c r="E220" s="86"/>
-      <c r="F220" s="86"/>
-      <c r="G220" s="86"/>
-      <c r="H220" s="87"/>
-    </row>
-    <row r="221" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C221" s="70" t="s">
+      <c r="E231" s="84"/>
+      <c r="F231" s="84"/>
+      <c r="G231" s="84"/>
+      <c r="H231" s="85"/>
+    </row>
+    <row r="232" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C232" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="D232" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="D221" s="55" t="s">
-        <v>517</v>
-      </c>
-      <c r="E221" s="86"/>
-      <c r="F221" s="86"/>
-      <c r="G221" s="86"/>
-      <c r="H221" s="87"/>
-    </row>
-    <row r="222" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D222" s="55"/>
-    </row>
-    <row r="223" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C223" s="75" t="s">
+      <c r="E232" s="84"/>
+      <c r="F232" s="84"/>
+      <c r="G232" s="84"/>
+      <c r="H232" s="85"/>
+    </row>
+    <row r="233" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C233" s="68" t="s">
         <v>536</v>
       </c>
-      <c r="D223" s="75" t="s">
+      <c r="D233" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="E223" s="76"/>
-      <c r="F223" s="76"/>
-      <c r="G223" s="76"/>
-      <c r="H223" s="77"/>
-    </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C224" s="66" t="s">
+      <c r="E233" s="84"/>
+      <c r="F233" s="84"/>
+      <c r="G233" s="84"/>
+      <c r="H233" s="85"/>
+    </row>
+    <row r="234" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D234" s="53"/>
+    </row>
+    <row r="235" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C235" s="73" t="s">
+        <v>548</v>
+      </c>
+      <c r="D235" s="73" t="s">
+        <v>547</v>
+      </c>
+      <c r="E235" s="74"/>
+      <c r="F235" s="74"/>
+      <c r="G235" s="74"/>
+      <c r="H235" s="75"/>
+    </row>
+    <row r="236" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C236" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="D236" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="D224" s="55" t="s">
-        <v>526</v>
-      </c>
-      <c r="E224" s="55"/>
-      <c r="F224" s="55"/>
-      <c r="G224" s="55"/>
-      <c r="H224" s="67"/>
-    </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C225" s="66" t="s">
+      <c r="E236" s="53"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="53"/>
+      <c r="H236" s="65"/>
+    </row>
+    <row r="237" spans="3:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C237" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="D237" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="D225" s="55" t="s">
-        <v>527</v>
-      </c>
-      <c r="E225" s="55"/>
-      <c r="F225" s="55"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="67"/>
-    </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C226" s="66" t="s">
+      <c r="E237" s="53"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="53"/>
+      <c r="H237" s="65"/>
+    </row>
+    <row r="238" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C238" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="D238" s="53" t="s">
         <v>539</v>
       </c>
-      <c r="D226" s="55" t="s">
-        <v>528</v>
-      </c>
-      <c r="E226" s="55"/>
-      <c r="F226" s="55"/>
-      <c r="G226" s="55"/>
-      <c r="H226" s="67"/>
-    </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C227" s="66" t="s">
+      <c r="E238" s="53"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="53"/>
+      <c r="H238" s="65"/>
+    </row>
+    <row r="239" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C239" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="D239" s="53" t="s">
         <v>540</v>
       </c>
-      <c r="D227" s="55" t="s">
-        <v>529</v>
-      </c>
-      <c r="E227" s="55"/>
-      <c r="F227" s="55"/>
-      <c r="G227" s="55"/>
-      <c r="H227" s="67"/>
-    </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C228" s="66" t="s">
+      <c r="E239" s="53"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="53"/>
+      <c r="H239" s="65"/>
+    </row>
+    <row r="240" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C240" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="D240" s="53" t="s">
         <v>541</v>
       </c>
-      <c r="D228" s="55" t="s">
-        <v>530</v>
-      </c>
-      <c r="E228" s="55"/>
-      <c r="F228" s="55"/>
-      <c r="G228" s="55"/>
-      <c r="H228" s="67"/>
-    </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C229" s="66" t="s">
+      <c r="E240" s="53"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="53"/>
+      <c r="H240" s="65"/>
+    </row>
+    <row r="241" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C241" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="D241" s="53" t="s">
         <v>542</v>
       </c>
-      <c r="D229" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="E229" s="55"/>
-      <c r="F229" s="55"/>
-      <c r="G229" s="55"/>
-      <c r="H229" s="67"/>
-    </row>
-    <row r="230" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C230" s="70" t="s">
+      <c r="E241" s="53"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="53"/>
+      <c r="H241" s="65"/>
+    </row>
+    <row r="242" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C242" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="D242" s="53" t="s">
         <v>543</v>
       </c>
-      <c r="D230" s="55" t="s">
-        <v>532</v>
-      </c>
-      <c r="E230" s="86"/>
-      <c r="F230" s="86"/>
-      <c r="G230" s="86"/>
-      <c r="H230" s="87"/>
-    </row>
-    <row r="231" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C231" s="70" t="s">
+      <c r="E242" s="84"/>
+      <c r="F242" s="84"/>
+      <c r="G242" s="84"/>
+      <c r="H242" s="85"/>
+    </row>
+    <row r="243" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C243" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="D243" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="D231" s="55" t="s">
-        <v>533</v>
-      </c>
-      <c r="E231" s="86"/>
-      <c r="F231" s="86"/>
-      <c r="G231" s="86"/>
-      <c r="H231" s="87"/>
-    </row>
-    <row r="232" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C232" s="70" t="s">
+      <c r="E243" s="84"/>
+      <c r="F243" s="84"/>
+      <c r="G243" s="84"/>
+      <c r="H243" s="85"/>
+    </row>
+    <row r="244" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C244" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="D244" s="53" t="s">
         <v>545</v>
       </c>
-      <c r="D232" s="55" t="s">
-        <v>534</v>
-      </c>
-      <c r="E232" s="86"/>
-      <c r="F232" s="86"/>
-      <c r="G232" s="86"/>
-      <c r="H232" s="87"/>
-    </row>
-    <row r="233" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C233" s="70" t="s">
+      <c r="E244" s="84"/>
+      <c r="F244" s="84"/>
+      <c r="G244" s="84"/>
+      <c r="H244" s="85"/>
+    </row>
+    <row r="245" spans="3:8" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C245" s="68" t="s">
+        <v>558</v>
+      </c>
+      <c r="D245" s="53" t="s">
         <v>546</v>
       </c>
-      <c r="D233" s="55" t="s">
-        <v>535</v>
-      </c>
-      <c r="E233" s="86"/>
-      <c r="F233" s="86"/>
-      <c r="G233" s="86"/>
-      <c r="H233" s="87"/>
-    </row>
-    <row r="234" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D234" s="55"/>
-    </row>
-    <row r="235" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C235" s="75" t="s">
-        <v>558</v>
-      </c>
-      <c r="D235" s="75" t="s">
-        <v>557</v>
-      </c>
-      <c r="E235" s="76"/>
-      <c r="F235" s="76"/>
-      <c r="G235" s="76"/>
-      <c r="H235" s="77"/>
-    </row>
-    <row r="236" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C236" s="66" t="s">
+      <c r="E245" s="84"/>
+      <c r="F245" s="84"/>
+      <c r="G245" s="84"/>
+      <c r="H245" s="85"/>
+    </row>
+    <row r="246" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D246" s="53"/>
+    </row>
+    <row r="247" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C247" s="73" t="s">
+        <v>571</v>
+      </c>
+      <c r="D247" s="73" t="s">
         <v>559</v>
       </c>
-      <c r="D236" s="55" t="s">
-        <v>547</v>
-      </c>
-      <c r="E236" s="55"/>
-      <c r="F236" s="55"/>
-      <c r="G236" s="55"/>
-      <c r="H236" s="67"/>
-    </row>
-    <row r="237" spans="3:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="C237" s="66" t="s">
+      <c r="E247" s="74"/>
+      <c r="F247" s="74"/>
+      <c r="G247" s="74"/>
+      <c r="H247" s="75"/>
+    </row>
+    <row r="248" spans="3:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="C248" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="D248" s="53" t="s">
         <v>560</v>
       </c>
-      <c r="D237" s="55" t="s">
-        <v>548</v>
-      </c>
-      <c r="E237" s="55"/>
-      <c r="F237" s="55"/>
-      <c r="G237" s="55"/>
-      <c r="H237" s="67"/>
-    </row>
-    <row r="238" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C238" s="66" t="s">
+      <c r="E248" s="53"/>
+      <c r="F248" s="53"/>
+      <c r="G248" s="53"/>
+      <c r="H248" s="65"/>
+    </row>
+    <row r="249" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C249" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D249" s="53" t="s">
         <v>561</v>
       </c>
-      <c r="D238" s="55" t="s">
-        <v>549</v>
-      </c>
-      <c r="E238" s="55"/>
-      <c r="F238" s="55"/>
-      <c r="G238" s="55"/>
-      <c r="H238" s="67"/>
-    </row>
-    <row r="239" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C239" s="66" t="s">
+      <c r="E249" s="53"/>
+      <c r="F249" s="53"/>
+      <c r="G249" s="53"/>
+      <c r="H249" s="65"/>
+    </row>
+    <row r="250" spans="3:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="C250" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="D250" s="53" t="s">
         <v>562</v>
       </c>
-      <c r="D239" s="55" t="s">
-        <v>550</v>
-      </c>
-      <c r="E239" s="55"/>
-      <c r="F239" s="55"/>
-      <c r="G239" s="55"/>
-      <c r="H239" s="67"/>
-    </row>
-    <row r="240" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C240" s="66" t="s">
+      <c r="E250" s="53"/>
+      <c r="F250" s="53"/>
+      <c r="G250" s="53"/>
+      <c r="H250" s="65"/>
+    </row>
+    <row r="251" spans="3:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C251" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="D251" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="D240" s="55" t="s">
-        <v>551</v>
-      </c>
-      <c r="E240" s="55"/>
-      <c r="F240" s="55"/>
-      <c r="G240" s="55"/>
-      <c r="H240" s="67"/>
-    </row>
-    <row r="241" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C241" s="66" t="s">
+      <c r="E251" s="53"/>
+      <c r="F251" s="53"/>
+      <c r="G251" s="53"/>
+      <c r="H251" s="65"/>
+    </row>
+    <row r="252" spans="3:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C252" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="D252" s="53" t="s">
         <v>564</v>
       </c>
-      <c r="D241" s="55" t="s">
-        <v>552</v>
-      </c>
-      <c r="E241" s="55"/>
-      <c r="F241" s="55"/>
-      <c r="G241" s="55"/>
-      <c r="H241" s="67"/>
-    </row>
-    <row r="242" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C242" s="70" t="s">
-        <v>565</v>
-      </c>
-      <c r="D242" s="55" t="s">
-        <v>553</v>
-      </c>
-      <c r="E242" s="86"/>
-      <c r="F242" s="86"/>
-      <c r="G242" s="86"/>
-      <c r="H242" s="87"/>
-    </row>
-    <row r="243" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C243" s="70" t="s">
-        <v>566</v>
-      </c>
-      <c r="D243" s="55" t="s">
-        <v>554</v>
-      </c>
-      <c r="E243" s="86"/>
-      <c r="F243" s="86"/>
-      <c r="G243" s="86"/>
-      <c r="H243" s="87"/>
-    </row>
-    <row r="244" spans="3:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C244" s="70" t="s">
-        <v>567</v>
-      </c>
-      <c r="D244" s="55" t="s">
-        <v>555</v>
-      </c>
-      <c r="E244" s="86"/>
-      <c r="F244" s="86"/>
-      <c r="G244" s="86"/>
-      <c r="H244" s="87"/>
-    </row>
-    <row r="245" spans="3:8" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C245" s="70" t="s">
-        <v>568</v>
-      </c>
-      <c r="D245" s="55" t="s">
-        <v>556</v>
-      </c>
-      <c r="E245" s="86"/>
-      <c r="F245" s="86"/>
-      <c r="G245" s="86"/>
-      <c r="H245" s="87"/>
-    </row>
-    <row r="246" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D246" s="55"/>
-    </row>
-    <row r="247" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C247" s="75" t="s">
-        <v>581</v>
-      </c>
-      <c r="D247" s="75" t="s">
-        <v>569</v>
-      </c>
-      <c r="E247" s="76"/>
-      <c r="F247" s="76"/>
-      <c r="G247" s="76"/>
-      <c r="H247" s="77"/>
-    </row>
-    <row r="248" spans="3:8" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="C248" s="66" t="s">
-        <v>575</v>
-      </c>
-      <c r="D248" s="55" t="s">
+      <c r="E252" s="53"/>
+      <c r="F252" s="53"/>
+      <c r="G252" s="53"/>
+      <c r="H252" s="65"/>
+    </row>
+    <row r="253" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C253" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="E248" s="55"/>
-      <c r="F248" s="55"/>
-      <c r="G248" s="55"/>
-      <c r="H248" s="67"/>
-    </row>
-    <row r="249" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C249" s="66" t="s">
-        <v>576</v>
-      </c>
-      <c r="D249" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="E249" s="55"/>
-      <c r="F249" s="55"/>
-      <c r="G249" s="55"/>
-      <c r="H249" s="67"/>
-    </row>
-    <row r="250" spans="3:8" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="C250" s="66" t="s">
-        <v>577</v>
-      </c>
-      <c r="D250" s="55" t="s">
-        <v>572</v>
-      </c>
-      <c r="E250" s="55"/>
-      <c r="F250" s="55"/>
-      <c r="G250" s="55"/>
-      <c r="H250" s="67"/>
-    </row>
-    <row r="251" spans="3:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="C251" s="66" t="s">
-        <v>578</v>
-      </c>
-      <c r="D251" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="E251" s="55"/>
-      <c r="F251" s="55"/>
-      <c r="G251" s="55"/>
-      <c r="H251" s="67"/>
-    </row>
-    <row r="252" spans="3:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C252" s="66" t="s">
-        <v>579</v>
-      </c>
-      <c r="D252" s="55" t="s">
-        <v>574</v>
-      </c>
-      <c r="E252" s="55"/>
-      <c r="F252" s="55"/>
-      <c r="G252" s="55"/>
-      <c r="H252" s="67"/>
-    </row>
-    <row r="253" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C253" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="D253" s="55" t="s">
-        <v>552</v>
-      </c>
-      <c r="E253" s="55"/>
-      <c r="F253" s="55"/>
-      <c r="G253" s="55"/>
-      <c r="H253" s="67"/>
+      <c r="D253" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E253" s="53"/>
+      <c r="F253" s="53"/>
+      <c r="G253" s="53"/>
+      <c r="H253" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G26 G29:G38 G41:G46 G69:G81 G84:G91 G125:G128 G131:G142 G49:G66 G156:G163 G166:G176 G179:G183 G186:G191 G94:G122 G145:G152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G26 G29:G38 G41:G46 G69:G81 G84:G91 G125:G128 G131:G142 G49:G66 G156:G163 G166:G176 G179:G183 G186:G191 G94:G122 G145:G152" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F29:F38 F41:F46 F69:F81 F84:F91 F125:F128 F131:F142 F49:F66 F156:F163 F166:F176 F179:F183 F186:F191 F94:F122 F145:F152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F29:F38 F41:F46 F69:F81 F84:F91 F125:F128 F131:F142 F49:F66 F156:F163 F166:F176 F179:F183 F186:F191 F94:F122 F145:F152" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>Results</formula1>
     </dataValidation>
   </dataValidations>
@@ -8466,8 +8017,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -8489,191 +8040,191 @@
   <sheetData>
     <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="165" t="s">
-        <v>483</v>
-      </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167"/>
+      <c r="D3" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="171"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
     </row>
     <row r="7" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="89" t="s">
-        <v>484</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>485</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="91" t="s">
-        <v>486</v>
+      <c r="D8" s="86" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="92"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="44"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="92"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="44"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="92"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="92"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="44"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="94"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="17" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="174" t="s">
-        <v>504</v>
-      </c>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
+      <c r="D17" s="155" t="s">
+        <v>495</v>
+      </c>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
     </row>
     <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="89" t="s">
-        <v>487</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="91" t="s">
-        <v>489</v>
+      <c r="D20" s="86" t="s">
+        <v>478</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>479</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="88" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="92"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="92"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="44"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="92"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="92"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="92"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="44"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="92"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="44"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="92"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="44"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="92"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="44"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="94"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -8685,15 +8236,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="D4:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8704,106 +8255,106 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="95" t="s">
-        <v>492</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="96" t="s">
-        <v>494</v>
+      <c r="D4" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>484</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="4:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>1</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>496</v>
+        <v>486</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>2</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>3</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="38"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="38"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="38"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="175" t="s">
-        <v>501</v>
-      </c>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
+      <c r="E15" s="156" t="s">
+        <v>492</v>
+      </c>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8815,24 +8366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100719CBF7423C5574897D40645C77FAC11" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8497d3ec56f54273b236593c6bd62bca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dcce58c87e9fcebab8021569449a8d0" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8964,31 +8497,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CEA6DE-1053-49E1-9F39-64BAB8A84FFE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBCC3BA1-1233-4E91-9E30-B067E42CF6B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FB69B2B-58DF-43A7-B8A3-362F289DE43D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9004,4 +8531,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBCC3BA1-1233-4E91-9E30-B067E42CF6B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CEA6DE-1053-49E1-9F39-64BAB8A84FFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>